--- a/data/trans_dic/BARTHEL_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R3-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0366103991892914</v>
+        <v>0.03461206656197269</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06690619277881496</v>
+        <v>0.06811592689351201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05606723374148644</v>
+        <v>0.05518862455053933</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1005089080502836</v>
+        <v>0.1025132614318445</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07491396273214634</v>
+        <v>0.07444592829509392</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1294154725736254</v>
+        <v>0.1272106742111232</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1408681805185579</v>
+        <v>0.1405133187039997</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1570966837927642</v>
+        <v>0.1585230242971446</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06320091494909449</v>
+        <v>0.06303398365290926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.107940026037715</v>
+        <v>0.1070315639559613</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1093625251356371</v>
+        <v>0.110086852526197</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1392355177147666</v>
+        <v>0.1395961559003818</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0926942114467699</v>
+        <v>0.0913654984727069</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1347603174748218</v>
+        <v>0.1407404256244579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1170156514050972</v>
+        <v>0.1187958128446437</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1565392890791573</v>
+        <v>0.153593361258121</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1375409312968701</v>
+        <v>0.1367700396308685</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2081158388331083</v>
+        <v>0.2118038475750296</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2198201936132247</v>
+        <v>0.2201511476895215</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2130684992524404</v>
+        <v>0.21212628289124</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1048071003593287</v>
+        <v>0.1082056706851916</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1631737987790646</v>
+        <v>0.162845250300815</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1592306106289157</v>
+        <v>0.1642710133071594</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1779359910878668</v>
+        <v>0.1776370655093149</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1832170070857326</v>
+        <v>0.1833433562451348</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2391544877646045</v>
+        <v>0.2381260213076762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2331632267670563</v>
+        <v>0.2348774140591392</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2813515547885117</v>
+        <v>0.2847993678348982</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2561245786578062</v>
+        <v>0.2560720535900896</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4023170534497594</v>
+        <v>0.4013694441404312</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3725670306070477</v>
+        <v>0.37441793068129</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5195863898970279</v>
+        <v>0.5161648565225229</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2384310272345398</v>
+        <v>0.2433179571407676</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.34803401206111</v>
+        <v>0.3479362783947019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3336043265282295</v>
+        <v>0.3358859019377786</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4326515074098514</v>
+        <v>0.4323732736915156</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2930042027216101</v>
+        <v>0.2983657437097901</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3638627917726738</v>
+        <v>0.3633274332493202</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.339736470856743</v>
+        <v>0.3375108279386332</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3681277882821254</v>
+        <v>0.3713872135001777</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3597133163565689</v>
+        <v>0.3595190347992646</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5074816458762355</v>
+        <v>0.5082199947718351</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.483864735224233</v>
+        <v>0.4852094972837677</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.584009955465807</v>
+        <v>0.5849227065624971</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3177398589050294</v>
+        <v>0.3256622629292998</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4312957844651719</v>
+        <v>0.435656696490144</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4157021522351342</v>
+        <v>0.4197491465917111</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4891242559491641</v>
+        <v>0.4895336264306634</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1037247057035059</v>
+        <v>0.1090521764672224</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1552220075980543</v>
+        <v>0.1541556883794856</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1385003002099361</v>
+        <v>0.1428452591894323</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1859811937598049</v>
+        <v>0.1870514085849808</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1739478288141547</v>
+        <v>0.1749780444567464</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2809067922075277</v>
+        <v>0.2790691775635055</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2754652111684676</v>
+        <v>0.2758804875720276</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3517014944868007</v>
+        <v>0.3511365589122895</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1531785390248151</v>
+        <v>0.1513335345831459</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2376637631065261</v>
+        <v>0.2390441520098748</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2248616582944365</v>
+        <v>0.2256736218239512</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2838993671348108</v>
+        <v>0.285468907587871</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1620223175132444</v>
+        <v>0.166770214699991</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2258754894346823</v>
+        <v>0.2255376232233162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1983937882390514</v>
+        <v>0.2001554405694869</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2359811115907599</v>
+        <v>0.238504725572117</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2393108578827693</v>
+        <v>0.2399460325688745</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3517002634050367</v>
+        <v>0.3490904160434973</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3427012662500459</v>
+        <v>0.3462514894462421</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.396627477945499</v>
+        <v>0.3986425699350165</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1970931828606378</v>
+        <v>0.1956882480524964</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2886708421729258</v>
+        <v>0.2864789331249478</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2727404514158015</v>
+        <v>0.2730707726531796</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3200594309148788</v>
+        <v>0.3210898643464045</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10712</v>
+        <v>10127</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20727</v>
+        <v>21101</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18745</v>
+        <v>18451</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>40915</v>
+        <v>41731</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>25691</v>
+        <v>25530</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>45813</v>
+        <v>45032</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>53215</v>
+        <v>53081</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>68564</v>
+        <v>69187</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40165</v>
+        <v>40059</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>71649</v>
+        <v>71046</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>77876</v>
+        <v>78392</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>117449</v>
+        <v>117753</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27121</v>
+        <v>26732</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41747</v>
+        <v>43599</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39122</v>
+        <v>39717</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>63724</v>
+        <v>62525</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>47167</v>
+        <v>46903</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>73672</v>
+        <v>74978</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>83040</v>
+        <v>83165</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>92993</v>
+        <v>92581</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>66607</v>
+        <v>68767</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>108312</v>
+        <v>108094</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>113387</v>
+        <v>116976</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>150093</v>
+        <v>149841</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>38454</v>
+        <v>38481</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>59753</v>
+        <v>59496</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>59922</v>
+        <v>60363</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>86418</v>
+        <v>87477</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>85522</v>
+        <v>85505</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>156493</v>
+        <v>156124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>149090</v>
+        <v>149830</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>239368</v>
+        <v>237792</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>129657</v>
+        <v>132314</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>222335</v>
+        <v>222272</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>219234</v>
+        <v>220733</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>332208</v>
+        <v>331995</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61497</v>
+        <v>62622</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>90911</v>
+        <v>90778</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>87312</v>
+        <v>86740</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>113072</v>
+        <v>114073</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>120111</v>
+        <v>120046</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>197400</v>
+        <v>197687</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>193628</v>
+        <v>194166</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>269048</v>
+        <v>269468</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>172784</v>
+        <v>177092</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>275525</v>
+        <v>278311</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>273186</v>
+        <v>275845</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>375571</v>
+        <v>375885</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>52118</v>
+        <v>54795</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>86868</v>
+        <v>86271</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>81899</v>
+        <v>84468</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>132834</v>
+        <v>133598</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>117735</v>
+        <v>118432</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>208707</v>
+        <v>207341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>214293</v>
+        <v>214616</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>315524</v>
+        <v>315017</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>180645</v>
+        <v>178469</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>309584</v>
+        <v>311382</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>307894</v>
+        <v>309006</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>457466</v>
+        <v>459995</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>81411</v>
+        <v>83796</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>126408</v>
+        <v>126219</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>117316</v>
+        <v>118358</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>168545</v>
+        <v>170348</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>161976</v>
+        <v>162406</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>261305</v>
+        <v>259365</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>266598</v>
+        <v>269360</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>355828</v>
+        <v>357636</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>232434</v>
+        <v>230777</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>376026</v>
+        <v>373171</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>373452</v>
+        <v>373905</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>515734</v>
+        <v>517394</v>
       </c>
     </row>
     <row r="16">
